--- a/images/results.xlsx
+++ b/images/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\justinsplinter.github.io\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E387507-C7E4-40E9-86C7-D39411E07F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85550D4B-8F76-4380-814B-1072D99AFABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13886" yWindow="3549" windowWidth="13791" windowHeight="13594" xr2:uid="{4C204379-9101-4032-9E08-46B2D4C5AA2D}"/>
+    <workbookView xWindow="840" yWindow="-103" windowWidth="27034" windowHeight="18720" xr2:uid="{4C204379-9101-4032-9E08-46B2D4C5AA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -620,9 +620,6 @@
     <t>8/1</t>
   </si>
   <si>
-    <t>8/2</t>
-  </si>
-  <si>
     <t>6/3</t>
   </si>
   <si>
@@ -702,6 +699,9 @@
   </si>
   <si>
     <t>JPN</t>
+  </si>
+  <si>
+    <t>7/2</t>
   </si>
 </sst>
 </file>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD19126-22CA-4DCA-8DBB-46100A0768BD}">
   <dimension ref="A1:AO168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L135" sqref="L135"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -1218,13 +1218,13 @@
   <sheetData>
     <row r="1" spans="1:41" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>63</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>64</v>
       </c>
       <c r="K1" s="23"/>
     </row>
@@ -1274,7 +1274,7 @@
         <v>35</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="2"/>
@@ -1677,7 +1677,7 @@
         <v>35</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="2"/>
@@ -1923,13 +1923,13 @@
         <v>2</v>
       </c>
       <c r="I14" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="25">
         <v>2</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2080,7 +2080,7 @@
         <v>35</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="2"/>
@@ -2332,7 +2332,7 @@
         <v>8</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -2483,7 +2483,7 @@
         <v>35</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="2"/>
@@ -2734,7 +2734,7 @@
         <v>5</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -2885,7 +2885,7 @@
         <v>35</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="2"/>
@@ -3137,7 +3137,7 @@
         <v>4</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -3288,7 +3288,7 @@
         <v>35</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K38" s="14"/>
       <c r="W38" s="2"/>
@@ -3496,7 +3496,7 @@
         <v>8</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -3625,7 +3625,7 @@
         <v>35</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K45" s="14"/>
       <c r="L45" s="2"/>
@@ -3877,7 +3877,7 @@
         <v>8</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -4028,7 +4028,7 @@
         <v>35</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K52" s="14"/>
       <c r="L52" s="2"/>
@@ -4280,7 +4280,7 @@
         <v>14</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -4430,7 +4430,7 @@
         <v>35</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K59" s="14"/>
       <c r="L59" s="2"/>
@@ -4682,7 +4682,7 @@
         <v>6</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -4824,7 +4824,7 @@
         <v>35</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K66" s="14"/>
       <c r="L66" s="2"/>
@@ -5076,7 +5076,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -5227,7 +5227,7 @@
         <v>35</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K73" s="14"/>
       <c r="L73" s="2"/>
@@ -5479,7 +5479,7 @@
         <v>10</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -5630,7 +5630,7 @@
         <v>35</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K80" s="14"/>
       <c r="L80" s="2"/>
@@ -5860,7 +5860,7 @@
         <v>12</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
@@ -5978,7 +5978,7 @@
         <v>35</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K87" s="14"/>
       <c r="L87" s="2"/>
@@ -6218,7 +6218,7 @@
         <v>16</v>
       </c>
       <c r="K91" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -6369,7 +6369,7 @@
         <v>35</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K94" s="14"/>
       <c r="L94" s="2"/>
@@ -6620,7 +6620,7 @@
         <v>15</v>
       </c>
       <c r="K98" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
@@ -6771,7 +6771,7 @@
         <v>35</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K101" s="14"/>
       <c r="L101" s="2"/>
@@ -7023,7 +7023,7 @@
         <v>13</v>
       </c>
       <c r="K105" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -7152,7 +7152,7 @@
         <v>35</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K108" s="14"/>
       <c r="L108" s="2"/>
@@ -7359,7 +7359,7 @@
         <v>11</v>
       </c>
       <c r="K112" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -7509,7 +7509,7 @@
         <v>35</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K115" s="14"/>
       <c r="M115" s="2"/>
@@ -7757,7 +7757,7 @@
         <v>19</v>
       </c>
       <c r="K119" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -7907,7 +7907,7 @@
         <v>35</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K122" s="14"/>
       <c r="L122" s="2"/>
@@ -8159,7 +8159,7 @@
         <v>16</v>
       </c>
       <c r="K126" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -8201,7 +8201,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
@@ -8311,7 +8311,7 @@
         <v>35</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K129" s="14"/>
       <c r="L129" s="2"/>
@@ -8563,7 +8563,7 @@
         <v>18</v>
       </c>
       <c r="K133" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -8605,7 +8605,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
@@ -8693,7 +8693,7 @@
         <v>35</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K136" s="14"/>
       <c r="L136" s="2"/>
@@ -8901,7 +8901,7 @@
         <v>24</v>
       </c>
       <c r="K140" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
@@ -9052,7 +9052,7 @@
         <v>35</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K143" s="14"/>
       <c r="L143" s="2"/>
@@ -9304,7 +9304,7 @@
         <v>23</v>
       </c>
       <c r="K147" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
@@ -9444,7 +9444,7 @@
         <v>36</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K150" s="14"/>
       <c r="L150" s="2"/>
@@ -9652,7 +9652,7 @@
         <v>22</v>
       </c>
       <c r="K154" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
@@ -9791,7 +9791,7 @@
         <v>35</v>
       </c>
       <c r="J157" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K157" s="14"/>
       <c r="M157" s="2"/>
@@ -10039,7 +10039,7 @@
         <v>20</v>
       </c>
       <c r="K161" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -10189,7 +10189,7 @@
         <v>35</v>
       </c>
       <c r="J164" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K164" s="14"/>
       <c r="L164" s="2"/>
@@ -10379,7 +10379,7 @@
         <v>21</v>
       </c>
       <c r="K168" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
